--- a/data/trans_camb/P16A08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A08-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A08-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 3,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 3,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,44; 4,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 5,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 4,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,31; 3,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 3,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 3,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 2,59</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,31%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,44%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,17; 150,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,49; 145,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,75; 189,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,69; 191,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,83; 187,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,99; 120,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,86; 120,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,43; 110,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,01; 85,59</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,39</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,25</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 3,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 3,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 5,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 4,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 4,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,1; 14,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 3,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 3,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,76; 9,61</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,65%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,08%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>104,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>128,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,06%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>128,86%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,3; 204,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,4; 199,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,18; 333,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,24; 150,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,79; 157,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,0; 412,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,9; 131,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,34; 115,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,59; 322,96</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,33</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,38; 4,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 3,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 4,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,73; 5,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 5,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,39; 2,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,19; 4,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 3,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 2,77</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>108,55%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,17%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,94%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,96%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,8%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,63%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 348,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,86; 256,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,01; 340,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,29; 180,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,23; 161,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,03; 96,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,8; 187,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,76; 159,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,78; 118,55</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,64</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,86; 2,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 1,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 4,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,04; 4,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 4,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,9; 5,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 3,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 2,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,22; 4,36</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,43%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>107,49%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,9%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,12%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,87%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,58%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,41%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>101,81%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,51; 197,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,3; 157,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,75; 399,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 229,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,43; 224,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,75; 246,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,34; 159,82</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,52; 123,65</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,24; 236,73</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,76</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,94; 1,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 3,86</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,26; 0,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,51; 0,68</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,65; 3,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,55; 1,6</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,13; 0,47</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,2; 2,87</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,42; 0,75</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,27%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,48%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,32%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,97%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,17%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,77%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,68%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,76%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,58; 108,43</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,05; 270,96</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,6; 83,49</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,38; 24,06</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,34; 104,62</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,66; 48,22</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,54; 17,52</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,57; 103,64</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,21; 26,71</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,1; 4,36</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,59; 1,76</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,72; 1,4</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,46; 2,5</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,84; 2,16</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 1,26</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 2,89</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,21; 1,46</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 0,96</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,61%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,49%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,45%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,26%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,24; 363,38</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,46; 162,31</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,65; 129,06</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,11; 105,22</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,73; 87,38</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,53; 56,35</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,76; 120,61</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,54; 69,78</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,14; 44,75</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 1,87</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,06; 1,49</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 1,91</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 2,64</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,42; 2,45</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 2,67</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,63; 1,99</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 1,74</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 2,02</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,83%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,61%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,72%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,67%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,27%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,55%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,27%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,58%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,84; 94,11</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,24; 73,57</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,05; 98,41</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,61; 75,44</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,21; 70,27</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,8; 76,77</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,32; 69,79</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,65; 61,64</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,55; 65,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A08-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,11</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 4,66</t>
+          <t>-2,35; 4,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 3,03</t>
+          <t>-3,27; 3,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 2,59</t>
+          <t>-2,05; 2,85</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-14,43%</t>
+          <t>-14,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>3,17%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-56,75; 189,4</t>
+          <t>-59,54; 201,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-71,99; 120,2</t>
+          <t>-71,72; 121,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-51,01; 85,59</t>
+          <t>-51,08; 90,45</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,39</t>
+          <t>15,16</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,25</t>
+          <t>9,86</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 5,86</t>
+          <t>0,61; 6,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 14,48</t>
+          <t>1,4; 43,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 9,61</t>
+          <t>2,26; 30,5</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>104,37%</t>
+          <t>124,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>128,14%</t>
+          <t>360,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>128,86%</t>
+          <t>298,87%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 333,06</t>
+          <t>11,92; 392,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,0; 412,68</t>
+          <t>26,42; 1284,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>41,59; 322,96</t>
+          <t>62,18; 989,97</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>1,31</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 4,04</t>
+          <t>0,16; 4,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 2,94</t>
+          <t>-1,45; 2,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 2,77</t>
+          <t>-0,28; 2,77</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>97,94%</t>
+          <t>101,1%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>19,39%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>43,63%</t>
+          <t>43,0%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 340,44</t>
+          <t>1,54; 351,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-28,03; 96,61</t>
+          <t>-28,3; 95,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 118,55</t>
+          <t>-8,77; 117,94</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>1,89</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 4,42</t>
+          <t>-1,83; 3,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,9; 5,03</t>
+          <t>0,54; 4,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,36</t>
+          <t>-0,16; 3,69</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>107,49%</t>
+          <t>61,7%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>96,87%</t>
+          <t>88,95%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>101,81%</t>
+          <t>72,86%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-14,75; 399,97</t>
+          <t>-50,15; 294,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>15,75; 246,6</t>
+          <t>7,86; 233,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>32,24; 236,73</t>
+          <t>-2,57; 186,78</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-0,85</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 0,88</t>
+          <t>-3,32; 0,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 1,6</t>
+          <t>-3,6; 1,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 0,75</t>
+          <t>-2,52; 0,61</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-34,32%</t>
+          <t>-36,78%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-11,17%</t>
+          <t>-13,12%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-19,76%</t>
+          <t>-22,2%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-75,6; 83,49</t>
+          <t>-76,73; 76,71</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-48,66; 48,22</t>
+          <t>-49,81; 45,21</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-48,21; 26,71</t>
+          <t>-49,14; 24,03</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,92</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 4,36</t>
+          <t>-0,27; 5,35</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 1,76</t>
+          <t>-2,38; 1,46</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 1,4</t>
+          <t>-2,14; 1,82</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 2,5</t>
+          <t>-3,31; 2,27</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 2,16</t>
+          <t>-4,24; 1,53</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 1,26</t>
+          <t>-5,55; 0,45</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 2,89</t>
+          <t>-1,03; 3,06</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 1,46</t>
+          <t>-2,65; 0,74</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 0,96</t>
+          <t>-3,08; 0,64</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>97,61%</t>
+          <t>131,11%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>-18,15%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>-8,57%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>-28,75%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-11,49%</t>
+          <t>-41,42%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>38,45%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>-26,67%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-6,26%</t>
+          <t>-27,91%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 363,38</t>
+          <t>-36,7; 652,39</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-53,46; 162,31</t>
+          <t>-84,0; 305,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-57,65; 129,06</t>
+          <t>-71,64; 245,12</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-33,11; 105,22</t>
+          <t>-56,94; 74,68</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-43,73; 87,38</t>
+          <t>-69,44; 55,0</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-49,53; 56,35</t>
+          <t>-83,64; 10,7</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 120,61</t>
+          <t>-26,05; 133,35</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-35,54; 69,78</t>
+          <t>-62,32; 32,82</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-39,14; 44,75</t>
+          <t>-65,71; 25,03</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
+          <t>1,42</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
           <t>1,31</t>
         </is>
       </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>0,23</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,87</t>
+          <t>-1,67; 5,17</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 1,49</t>
+          <t>-2,33; 3,54</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,91</t>
+          <t>-2,76; 2,13</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,64</t>
+          <t>-1,42; 3,95</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,45</t>
+          <t>-1,21; 4,59</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,67</t>
+          <t>-2,19; 2,27</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,99</t>
+          <t>-0,78; 3,5</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,74</t>
+          <t>-0,75; 3,44</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,02</t>
+          <t>-1,57; 1,73</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>42,83%</t>
+          <t>63,81%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>28,61%</t>
+          <t>35,31%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>40,72%</t>
+          <t>-4,05%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>40,67%</t>
+          <t>58,3%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>37,27%</t>
+          <t>69,06%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>29,12%</t>
+          <t>19,33%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>41,55%</t>
+          <t>60,52%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>34,27%</t>
+          <t>55,68%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>34,58%</t>
+          <t>9,89%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-63,99; 538,15</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-64,6; 334,03</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-66,91; 239,41</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-41,93; 378,01</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-45,97; 430,94</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-54,16; 238,11</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-28,1; 273,73</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-26,03; 260,07</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-42,86; 133,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>1,59</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>2,36</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>1,31</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 1,87</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 1,49</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-0,1; 1,89</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 2,64</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 2,45</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 10,28</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>0,63; 1,99</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>0,47; 1,74</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 6,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>42,83%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>28,61%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>36,45%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>40,67%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>37,27%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>60,42%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>41,55%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>34,27%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>52,11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>6,84; 94,11</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-3,24; 73,57</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>6,05; 98,41</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-3,77; 94,63</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>12,61; 75,44</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>9,21; 70,27</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>3,8; 76,77</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>7,34; 263,24</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>18,32; 69,79</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>13,65; 61,64</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>12,55; 65,64</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>13,49; 180,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P16A08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A08-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 3,22</t>
+          <t>-1,64; 3,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 3,31</t>
+          <t>-1,63; 3,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 4,94</t>
+          <t>-2,34; 4,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 5,24</t>
+          <t>-0,18; 5,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 4,98</t>
+          <t>-1,08; 4,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 3,17</t>
+          <t>-3,13; 3,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 3,46</t>
+          <t>-0,29; 3,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 3,05</t>
+          <t>-0,49; 3,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 2,85</t>
+          <t>-2,14; 3,14</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,17; 150,44</t>
+          <t>-39,35; 148,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,49; 145,95</t>
+          <t>-41,46; 130,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-59,54; 201,29</t>
+          <t>-58,86; 206,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 191,84</t>
+          <t>-9,16; 200,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,83; 187,24</t>
+          <t>-24,73; 163,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-71,72; 121,36</t>
+          <t>-70,25; 129,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 120,89</t>
+          <t>-7,69; 119,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,43; 110,35</t>
+          <t>-13,01; 112,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-51,08; 90,45</t>
+          <t>-52,95; 110,72</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 3,4</t>
+          <t>-0,49; 3,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 3,07</t>
+          <t>-0,64; 2,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 6,93</t>
+          <t>0,34; 6,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 4,49</t>
+          <t>-0,58; 4,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 4,68</t>
+          <t>-0,67; 4,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 43,87</t>
+          <t>1,65; 46,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 3,45</t>
+          <t>0,12; 3,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 3,04</t>
+          <t>0,06; 3,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 30,5</t>
+          <t>2,18; 31,09</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 204,69</t>
+          <t>-15,15; 205,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,4; 199,28</t>
+          <t>-22,05; 179,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,92; 392,37</t>
+          <t>1,89; 397,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 150,87</t>
+          <t>-13,05; 150,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 157,94</t>
+          <t>-11,17; 142,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,42; 1284,47</t>
+          <t>36,51; 1365,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,9; 131,68</t>
+          <t>1,18; 126,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 115,23</t>
+          <t>-0,5; 124,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>62,18; 989,97</t>
+          <t>58,15; 1090,18</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 4,24</t>
+          <t>0,11; 4,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 3,1</t>
+          <t>-0,5; 3,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,16; 4,19</t>
+          <t>0,05; 4,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 5,67</t>
+          <t>1,04; 5,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 5,19</t>
+          <t>0,41; 5,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 2,87</t>
+          <t>-1,36; 2,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,39</t>
+          <t>1,23; 4,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 3,6</t>
+          <t>0,52; 3,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 2,77</t>
+          <t>-0,18; 2,76</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 348,46</t>
+          <t>0,77; 350,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,86; 256,49</t>
+          <t>-22,51; 291,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,54; 351,11</t>
+          <t>-3,5; 357,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,29; 180,62</t>
+          <t>15,5; 182,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,23; 161,95</t>
+          <t>6,87; 186,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-28,3; 95,0</t>
+          <t>-25,18; 100,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,8; 187,36</t>
+          <t>31,78; 171,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,76; 159,08</t>
+          <t>14,18; 144,93</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 117,94</t>
+          <t>-6,06; 117,9</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 2,07</t>
+          <t>-2,12; 2,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 1,6</t>
+          <t>-2,26; 1,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 3,59</t>
+          <t>-1,71; 3,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,04; 4,99</t>
+          <t>-0,16; 5,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 4,76</t>
+          <t>-0,4; 4,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,69</t>
+          <t>0,39; 4,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 3,04</t>
+          <t>-0,38; 2,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 2,42</t>
+          <t>-0,54; 2,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 3,69</t>
+          <t>-0,16; 3,57</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-62,51; 197,68</t>
+          <t>-64,87; 168,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-70,3; 157,85</t>
+          <t>-69,13; 167,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-50,15; 294,99</t>
+          <t>-45,22; 307,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 229,07</t>
+          <t>-5,83; 241,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 224,07</t>
+          <t>-16,18; 223,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,86; 233,62</t>
+          <t>8,21; 221,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 159,82</t>
+          <t>-10,6; 144,41</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 123,65</t>
+          <t>-17,26; 124,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 186,78</t>
+          <t>-3,06; 185,11</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 1,42</t>
+          <t>-2,94; 1,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 3,86</t>
+          <t>-1,13; 3,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 0,79</t>
+          <t>-3,38; 0,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 0,68</t>
+          <t>-4,74; 1,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 3,53</t>
+          <t>-3,05; 3,23</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 1,54</t>
+          <t>-3,61; 1,82</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 0,47</t>
+          <t>-3,22; 0,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 2,87</t>
+          <t>-1,31; 2,7</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 0,61</t>
+          <t>-2,59; 0,68</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-77,58; 108,43</t>
+          <t>-75,61; 148,79</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-34,05; 270,96</t>
+          <t>-32,75; 275,7</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-76,73; 76,71</t>
+          <t>-76,68; 49,7</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-68,38; 24,06</t>
+          <t>-69,12; 42,59</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-42,34; 104,62</t>
+          <t>-44,11; 90,65</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-49,81; 45,21</t>
+          <t>-49,43; 55,8</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-62,54; 17,52</t>
+          <t>-61,58; 15,8</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-24,57; 103,64</t>
+          <t>-26,97; 93,8</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-49,14; 24,03</t>
+          <t>-52,03; 24,91</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 5,35</t>
+          <t>-0,4; 5,72</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,46</t>
+          <t>-2,37; 1,66</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,82</t>
+          <t>-2,3; 1,74</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 2,27</t>
+          <t>-3,23; 2,81</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 1,53</t>
+          <t>-4,32; 1,29</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 0,45</t>
+          <t>-5,78; 0,46</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 3,06</t>
+          <t>-1,21; 3,0</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 0,74</t>
+          <t>-2,8; 0,93</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 0,64</t>
+          <t>-2,96; 0,72</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-36,7; 652,39</t>
+          <t>-34,93; 751,28</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-84,0; 305,0</t>
+          <t>-84,1; 267,78</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-71,64; 245,12</t>
+          <t>-69,56; 248,65</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-56,94; 74,68</t>
+          <t>-55,17; 98,78</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-69,44; 55,0</t>
+          <t>-71,48; 44,96</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-83,64; 10,7</t>
+          <t>-77,7; 13,29</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-26,05; 133,35</t>
+          <t>-31,06; 122,04</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-62,32; 32,82</t>
+          <t>-63,97; 41,53</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-65,71; 25,03</t>
+          <t>-63,72; 27,43</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 5,17</t>
+          <t>-1,6; 5,14</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 3,54</t>
+          <t>-2,6; 3,43</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 2,13</t>
+          <t>-3,42; 2,2</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 3,95</t>
+          <t>-1,44; 3,65</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 4,59</t>
+          <t>-1,23; 4,2</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 2,27</t>
+          <t>-2,2; 2,48</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 3,5</t>
+          <t>-0,67; 3,52</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,44</t>
+          <t>-0,9; 3,49</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 1,73</t>
+          <t>-1,87; 1,63</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-63,99; 538,15</t>
+          <t>-54,97; 537,78</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-64,6; 334,03</t>
+          <t>-62,93; 405,34</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-66,91; 239,41</t>
+          <t>-72,65; 257,79</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-41,93; 378,01</t>
+          <t>-47,42; 331,5</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-45,97; 430,94</t>
+          <t>-47,3; 304,79</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-54,16; 238,11</t>
+          <t>-52,79; 271,55</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-28,1; 273,73</t>
+          <t>-25,27; 265,79</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-26,03; 260,07</t>
+          <t>-29,35; 283,67</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-42,86; 133,47</t>
+          <t>-49,17; 118,8</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,87</t>
+          <t>0,21; 1,88</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 1,49</t>
+          <t>-0,25; 1,4</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 1,89</t>
+          <t>-0,16; 1,86</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,64</t>
+          <t>0,62; 2,67</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,45</t>
+          <t>0,52; 2,56</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,3; 10,28</t>
+          <t>0,25; 8,91</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,99</t>
+          <t>0,65; 1,98</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,74</t>
+          <t>0,42; 1,74</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>0,44; 6,25</t>
+          <t>0,43; 5,37</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>6,84; 94,11</t>
+          <t>7,65; 96,05</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 73,57</t>
+          <t>-10,18; 68,55</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 94,63</t>
+          <t>-6,43; 91,51</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>12,61; 75,44</t>
+          <t>14,64; 80,68</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>9,21; 70,27</t>
+          <t>11,81; 75,47</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>7,34; 263,24</t>
+          <t>5,96; 253,6</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>18,32; 69,79</t>
+          <t>19,21; 69,95</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>13,65; 61,64</t>
+          <t>11,56; 59,29</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>13,49; 180,49</t>
+          <t>12,63; 164,9</t>
         </is>
       </c>
     </row>
